--- a/va_facility_data_2025-02-20/Imperial Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Imperial%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Imperial Valley VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Imperial%20Valley%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1df3107445324ff69a20beed0ae8c851"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc6041c6599ce4afeb01131b3f71bd266"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7c6b54d939ec4dc1aaed092884254ec9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R03d49e6706b84d1fb6b8bec504369ecb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9d1a743a7aab4166bde63df75cd50e7e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb68c0f148d0e4c2eafc169ced695ca72"/>
   </x:sheets>
 </x:workbook>
 </file>
